--- a/Excel/Stipendii.xlsx
+++ b/Excel/Stipendii.xlsx
@@ -136,18 +136,8 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$лв.-402]"/>
@@ -156,6 +146,16 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -174,20 +174,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" dataDxfId="6">
   <sortState ref="B2:G10">
     <sortCondition ref="C2:C10"/>
     <sortCondition ref="B2:B10"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="13" name="Номер" dataDxfId="1">
+    <tableColumn id="13" name="Номер" dataDxfId="5">
       <calculatedColumnFormula>ROW(Table1[[#This Row],[Номер]]) - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Име" dataDxfId="0"/>
-    <tableColumn id="2" name="Клас" dataDxfId="6"/>
-    <tableColumn id="4" name="Среден успех" dataDxfId="5"/>
-    <tableColumn id="5" name="Доход" dataDxfId="4"/>
-    <tableColumn id="6" name="Вид стипендия" dataDxfId="2">
+    <tableColumn id="1" name="Име" dataDxfId="4"/>
+    <tableColumn id="2" name="Клас" dataDxfId="3"/>
+    <tableColumn id="4" name="Среден успех" dataDxfId="2"/>
+    <tableColumn id="5" name="Доход" dataDxfId="1"/>
+    <tableColumn id="6" name="Вид стипендия" dataDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Среден успех]] &gt;= 5.5,"За отличен успех", IF(AND(Table1[[#This Row],[Доход]] &gt; 0, Table1[[#This Row],[Доход]] &lt; 610), "Социална", "За подпомагане достъпа до образование"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>За отличен успех</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>2</v>
@@ -539,7 +539,7 @@
         <v>За подпомагане достъпа до образование</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>За отличен успех</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>За отличен успех</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>5</v>
@@ -605,7 +605,7 @@
         <v>Социална</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>6</v>
@@ -627,7 +627,7 @@
         <v>За отличен успех</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>7</v>
@@ -649,7 +649,7 @@
         <v>Социална</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>8</v>
@@ -671,7 +671,7 @@
         <v>За подпомагане достъпа до образование</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>9</v>
@@ -693,7 +693,7 @@
         <v>За отличен успех</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>ROW(Table1[[#This Row],[Номер]]) - 1</f>
         <v>10</v>

--- a/Excel/Stipendii.xlsx
+++ b/Excel/Stipendii.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,10 +469,10 @@
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
